--- a/output/ejecucion_2/vl/results/base_17_19/vl_1719.xlsx
+++ b/output/ejecucion_2/vl/results/base_17_19/vl_1719.xlsx
@@ -417,16 +417,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>214.795</v>
+        <v>668.433</v>
       </c>
       <c r="C2">
-        <v>277.275</v>
+        <v>876.051</v>
       </c>
       <c r="D2">
-        <v>23345.775</v>
+        <v>725.143</v>
       </c>
       <c r="E2">
-        <v>30137.987</v>
+        <v>950.067</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -434,16 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>215.322</v>
+        <v>661.396</v>
       </c>
       <c r="C3">
-        <v>277.943</v>
+        <v>867.167</v>
       </c>
       <c r="D3">
-        <v>23406.624</v>
+        <v>717.67</v>
       </c>
       <c r="E3">
-        <v>30213.628</v>
+        <v>940.5069999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,16 +451,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>218.613</v>
+        <v>665.543</v>
       </c>
       <c r="C4">
-        <v>279.75</v>
+        <v>863.176</v>
       </c>
       <c r="D4">
-        <v>23653.533</v>
+        <v>718.587</v>
       </c>
       <c r="E4">
-        <v>30273.566</v>
+        <v>932.248</v>
       </c>
     </row>
   </sheetData>

--- a/output/ejecucion_2/vl/results/base_17_19/vl_1719.xlsx
+++ b/output/ejecucion_2/vl/results/base_17_19/vl_1719.xlsx
@@ -417,16 +417,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>668.433</v>
+        <v>631.539</v>
       </c>
       <c r="C2">
-        <v>876.051</v>
+        <v>829.968</v>
       </c>
       <c r="D2">
-        <v>725.143</v>
+        <v>690.534</v>
       </c>
       <c r="E2">
-        <v>950.067</v>
+        <v>907.52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -434,16 +434,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>661.396</v>
+        <v>639.494</v>
       </c>
       <c r="C3">
-        <v>867.167</v>
+        <v>834.772</v>
       </c>
       <c r="D3">
-        <v>717.67</v>
+        <v>699.385</v>
       </c>
       <c r="E3">
-        <v>940.5069999999999</v>
+        <v>913.419</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,16 +451,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>665.543</v>
+        <v>624.1079999999999</v>
       </c>
       <c r="C4">
-        <v>863.176</v>
+        <v>813.401</v>
       </c>
       <c r="D4">
-        <v>718.587</v>
+        <v>685.122</v>
       </c>
       <c r="E4">
-        <v>932.248</v>
+        <v>892.931</v>
       </c>
     </row>
   </sheetData>
